--- a/AgentExperiment.xlsx
+++ b/AgentExperiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Github\ReflectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846F08E-D03A-4C07-82FE-8F0A753F4380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E9B40-6D88-41D5-AD14-D283EF980702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="4185" windowWidth="25440" windowHeight="15270" xr2:uid="{80B04CF1-7637-4C96-AE76-1DDD0574E0D7}"/>
+    <workbookView xWindow="-23460" yWindow="6135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{80B04CF1-7637-4C96-AE76-1DDD0574E0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION SHEET" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="576">
   <si>
     <t>a1</t>
   </si>
@@ -2036,6 +2036,24 @@
   </si>
   <si>
     <t>Some of this is answered in Dutch</t>
+  </si>
+  <si>
+    <t>B -&gt; A</t>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+  </si>
+  <si>
+    <t>Informed about DSS</t>
+  </si>
+  <si>
+    <t>Order of parts</t>
+  </si>
+  <si>
+    <t>not informed</t>
+  </si>
+  <si>
+    <t>informed</t>
   </si>
 </sst>
 </file>
@@ -3169,6 +3187,78 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3184,12 +3274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3217,15 +3301,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -3234,63 +3309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3678,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF46D6-7E14-4FEF-82B9-B6DF82FD6AC4}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -3768,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4701F5-8CC6-46F5-A682-BE7B8F1AEA28}">
-  <dimension ref="A2:AC53"/>
+  <dimension ref="A2:AC55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,79 +3800,79 @@
   <sheetData>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="204" t="s">
         <v>532</v>
       </c>
       <c r="B3" s="70"/>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="209" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190" t="s">
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="212" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="187" t="s">
+      <c r="L3" s="209" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="176" t="s">
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="200" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="206" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="184" t="s">
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="206" t="s">
         <v>527</v>
       </c>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="184" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="206" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="184" t="s">
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="206" t="s">
         <v>529</v>
       </c>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="185" t="s">
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="207" t="s">
         <v>530</v>
       </c>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="177"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="201"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="8" t="s">
         <v>533</v>
       </c>
@@ -3882,7 +3900,7 @@
       <c r="J5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="191"/>
+      <c r="K5" s="213"/>
       <c r="L5" s="13" t="s">
         <v>33</v>
       </c>
@@ -3919,10 +3937,10 @@
       <c r="W5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="177"/>
+      <c r="X5" s="201"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="181"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="8" t="s">
         <v>534</v>
       </c>
@@ -3950,7 +3968,7 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="191"/>
+      <c r="K6" s="213"/>
       <c r="L6" s="10">
         <v>0</v>
       </c>
@@ -3987,10 +4005,10 @@
       <c r="W6" s="12">
         <v>0</v>
       </c>
-      <c r="X6" s="177"/>
+      <c r="X6" s="201"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="8" t="s">
         <v>535</v>
       </c>
@@ -4018,7 +4036,7 @@
       <c r="J7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="191"/>
+      <c r="K7" s="213"/>
       <c r="L7" s="10" t="s">
         <v>36</v>
       </c>
@@ -4055,10 +4073,10 @@
       <c r="W7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="177"/>
+      <c r="X7" s="201"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="181"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="8" t="s">
         <v>536</v>
       </c>
@@ -4086,7 +4104,7 @@
       <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="191"/>
+      <c r="K8" s="213"/>
       <c r="L8" s="10" t="s">
         <v>48</v>
       </c>
@@ -4123,10 +4141,10 @@
       <c r="W8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="177"/>
+      <c r="X8" s="201"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="8" t="s">
         <v>537</v>
       </c>
@@ -4154,7 +4172,7 @@
       <c r="J9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="213"/>
       <c r="L9" s="10" t="s">
         <v>52</v>
       </c>
@@ -4191,10 +4209,10 @@
       <c r="W9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="177"/>
+      <c r="X9" s="201"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="181"/>
+      <c r="A10" s="180"/>
       <c r="B10" s="8" t="s">
         <v>538</v>
       </c>
@@ -4222,7 +4240,7 @@
       <c r="J10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="191"/>
+      <c r="K10" s="213"/>
       <c r="L10" s="13" t="s">
         <v>36</v>
       </c>
@@ -4259,10 +4277,10 @@
       <c r="W10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="177"/>
+      <c r="X10" s="201"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="181"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="8" t="s">
         <v>539</v>
       </c>
@@ -4290,7 +4308,7 @@
       <c r="J11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="191"/>
+      <c r="K11" s="213"/>
       <c r="L11" s="10" t="s">
         <v>57</v>
       </c>
@@ -4327,10 +4345,10 @@
       <c r="W11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="177"/>
+      <c r="X11" s="201"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="8" t="s">
         <v>540</v>
       </c>
@@ -4358,7 +4376,7 @@
       <c r="J12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="191"/>
+      <c r="K12" s="213"/>
       <c r="L12" s="10" t="s">
         <v>61</v>
       </c>
@@ -4395,10 +4413,10 @@
       <c r="W12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="177"/>
+      <c r="X12" s="201"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="75" t="s">
         <v>541</v>
       </c>
@@ -4426,7 +4444,7 @@
       <c r="J13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="191"/>
+      <c r="K13" s="213"/>
       <c r="L13" s="16" t="s">
         <v>40</v>
       </c>
@@ -4463,7 +4481,7 @@
       <c r="W13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="177"/>
+      <c r="X13" s="201"/>
     </row>
     <row r="14" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="160"/>
@@ -4492,7 +4510,7 @@
       <c r="J14" s="165">
         <v>7</v>
       </c>
-      <c r="K14" s="178"/>
+      <c r="K14" s="202"/>
       <c r="L14" s="162">
         <v>8</v>
       </c>
@@ -4529,7 +4547,7 @@
       <c r="W14" s="165">
         <v>19</v>
       </c>
-      <c r="X14" s="178"/>
+      <c r="X14" s="202"/>
       <c r="Y14" s="166" t="s">
         <v>81</v>
       </c>
@@ -4547,7 +4565,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="180" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="155" t="s">
@@ -4577,7 +4595,7 @@
       <c r="J15" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="K15" s="178"/>
+      <c r="K15" s="202"/>
       <c r="L15" s="114" t="s">
         <v>364</v>
       </c>
@@ -4614,7 +4632,7 @@
       <c r="W15" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="X15" s="178"/>
+      <c r="X15" s="202"/>
       <c r="Y15" s="169">
         <f>COUNTIF(C15:W15,"* No*")</f>
         <v>11</v>
@@ -4637,7 +4655,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="156" t="s">
         <v>420</v>
       </c>
@@ -4665,7 +4683,7 @@
       <c r="J16" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="K16" s="178"/>
+      <c r="K16" s="202"/>
       <c r="L16" s="114" t="s">
         <v>365</v>
       </c>
@@ -4702,7 +4720,7 @@
       <c r="W16" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="X16" s="178"/>
+      <c r="X16" s="202"/>
       <c r="Y16" s="169">
         <f t="shared" ref="Y16:Y44" si="0">COUNTIF(C16:W16,"* No*")</f>
         <v>16</v>
@@ -4725,7 +4743,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="156" t="s">
         <v>421</v>
       </c>
@@ -4753,7 +4771,7 @@
       <c r="J17" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="K17" s="178"/>
+      <c r="K17" s="202"/>
       <c r="L17" s="114" t="s">
         <v>370</v>
       </c>
@@ -4790,7 +4808,7 @@
       <c r="W17" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="X17" s="178"/>
+      <c r="X17" s="202"/>
       <c r="Y17" s="169">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4813,7 +4831,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="157" t="s">
         <v>422</v>
       </c>
@@ -4841,7 +4859,7 @@
       <c r="J18" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="K18" s="178"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="114" t="s">
         <v>367</v>
       </c>
@@ -4878,7 +4896,7 @@
       <c r="W18" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="X18" s="178"/>
+      <c r="X18" s="202"/>
       <c r="Y18" s="169">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4901,7 +4919,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="183"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="158" t="s">
         <v>423</v>
       </c>
@@ -4929,7 +4947,7 @@
       <c r="J19" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="178"/>
+      <c r="K19" s="202"/>
       <c r="L19" s="116" t="s">
         <v>368</v>
       </c>
@@ -4966,7 +4984,7 @@
       <c r="W19" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="X19" s="178"/>
+      <c r="X19" s="202"/>
       <c r="Y19" s="169">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4989,7 +5007,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="176" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="155" t="s">
@@ -5019,7 +5037,7 @@
       <c r="J20" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="178"/>
+      <c r="K20" s="202"/>
       <c r="L20" s="121" t="s">
         <v>386</v>
       </c>
@@ -5056,7 +5074,7 @@
       <c r="W20" s="124" t="s">
         <v>397</v>
       </c>
-      <c r="X20" s="178"/>
+      <c r="X20" s="202"/>
       <c r="Y20" s="169"/>
       <c r="Z20" s="170"/>
       <c r="AA20" s="170"/>
@@ -5064,7 +5082,7 @@
       <c r="AC20" s="172"/>
     </row>
     <row r="21" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="156" t="s">
         <v>420</v>
       </c>
@@ -5092,7 +5110,7 @@
       <c r="J21" s="124" t="s">
         <v>399</v>
       </c>
-      <c r="K21" s="178"/>
+      <c r="K21" s="202"/>
       <c r="L21" s="119" t="s">
         <v>525</v>
       </c>
@@ -5129,7 +5147,7 @@
       <c r="W21" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X21" s="178"/>
+      <c r="X21" s="202"/>
       <c r="Y21" s="169"/>
       <c r="Z21" s="170"/>
       <c r="AA21" s="170"/>
@@ -5137,7 +5155,7 @@
       <c r="AC21" s="172"/>
     </row>
     <row r="22" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="156" t="s">
         <v>421</v>
       </c>
@@ -5165,7 +5183,7 @@
       <c r="J22" s="124" t="s">
         <v>407</v>
       </c>
-      <c r="K22" s="178"/>
+      <c r="K22" s="202"/>
       <c r="L22" s="121" t="s">
         <v>408</v>
       </c>
@@ -5202,7 +5220,7 @@
       <c r="W22" s="124" t="s">
         <v>418</v>
       </c>
-      <c r="X22" s="178"/>
+      <c r="X22" s="202"/>
       <c r="Y22" s="169"/>
       <c r="Z22" s="170"/>
       <c r="AA22" s="170"/>
@@ -5210,7 +5228,7 @@
       <c r="AC22" s="172"/>
     </row>
     <row r="23" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="176"/>
       <c r="B23" s="157" t="s">
         <v>422</v>
       </c>
@@ -5238,7 +5256,7 @@
       <c r="J23" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="K23" s="178"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="118" t="s">
         <v>485</v>
       </c>
@@ -5275,7 +5293,7 @@
       <c r="W23" s="103" t="s">
         <v>486</v>
       </c>
-      <c r="X23" s="178"/>
+      <c r="X23" s="202"/>
       <c r="Y23" s="169"/>
       <c r="Z23" s="170"/>
       <c r="AA23" s="170"/>
@@ -5283,7 +5301,7 @@
       <c r="AC23" s="172"/>
     </row>
     <row r="24" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="158" t="s">
         <v>423</v>
       </c>
@@ -5311,7 +5329,7 @@
       <c r="J24" s="103" t="s">
         <v>492</v>
       </c>
-      <c r="K24" s="178"/>
+      <c r="K24" s="202"/>
       <c r="L24" s="118" t="s">
         <v>493</v>
       </c>
@@ -5348,7 +5366,7 @@
       <c r="W24" s="103" t="s">
         <v>504</v>
       </c>
-      <c r="X24" s="178"/>
+      <c r="X24" s="202"/>
       <c r="Y24" s="169"/>
       <c r="Z24" s="170"/>
       <c r="AA24" s="170"/>
@@ -5356,59 +5374,59 @@
       <c r="AC24" s="172"/>
     </row>
     <row r="25" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="177" t="s">
         <v>179</v>
       </c>
       <c r="B25" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="D25" s="198" t="s">
+      <c r="D25" s="191" t="s">
         <v>424</v>
       </c>
-      <c r="E25" s="207" t="s">
+      <c r="E25" s="185" t="s">
         <v>525</v>
       </c>
-      <c r="F25" s="204" t="s">
+      <c r="F25" s="182" t="s">
         <v>425</v>
       </c>
       <c r="G25" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="H25" s="204" t="s">
+      <c r="H25" s="182" t="s">
         <v>431</v>
       </c>
-      <c r="I25" s="198" t="s">
+      <c r="I25" s="191" t="s">
         <v>432</v>
       </c>
       <c r="J25" s="133" t="s">
         <v>433</v>
       </c>
-      <c r="K25" s="178"/>
-      <c r="L25" s="201" t="s">
+      <c r="K25" s="202"/>
+      <c r="L25" s="197" t="s">
         <v>425</v>
       </c>
-      <c r="M25" s="204" t="s">
+      <c r="M25" s="182" t="s">
         <v>431</v>
       </c>
-      <c r="N25" s="204" t="s">
+      <c r="N25" s="182" t="s">
         <v>438</v>
       </c>
-      <c r="O25" s="204" t="s">
+      <c r="O25" s="182" t="s">
         <v>425</v>
       </c>
-      <c r="P25" s="198" t="s">
+      <c r="P25" s="191" t="s">
         <v>439</v>
       </c>
-      <c r="Q25" s="198" t="s">
+      <c r="Q25" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="R25" s="198" t="s">
+      <c r="R25" s="191" t="s">
         <v>441</v>
       </c>
-      <c r="S25" s="198" t="s">
+      <c r="S25" s="191" t="s">
         <v>442</v>
       </c>
       <c r="T25" s="94" t="s">
@@ -5423,7 +5441,7 @@
       <c r="W25" s="133" t="s">
         <v>455</v>
       </c>
-      <c r="X25" s="178"/>
+      <c r="X25" s="202"/>
       <c r="Y25" s="169"/>
       <c r="Z25" s="170"/>
       <c r="AA25" s="170"/>
@@ -5431,31 +5449,31 @@
       <c r="AC25" s="172"/>
     </row>
     <row r="26" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="156" t="s">
         <v>420</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="205"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="183"/>
       <c r="G26" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="H26" s="205"/>
-      <c r="I26" s="199"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="192"/>
       <c r="J26" s="134" t="s">
         <v>434</v>
       </c>
-      <c r="K26" s="178"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
       <c r="T26" s="95" t="s">
         <v>449</v>
       </c>
@@ -5468,7 +5486,7 @@
       <c r="W26" s="134" t="s">
         <v>457</v>
       </c>
-      <c r="X26" s="178"/>
+      <c r="X26" s="202"/>
       <c r="Y26" s="169"/>
       <c r="Z26" s="170"/>
       <c r="AA26" s="170"/>
@@ -5476,31 +5494,31 @@
       <c r="AC26" s="172"/>
     </row>
     <row r="27" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="156" t="s">
         <v>421</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="205"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="H27" s="205"/>
-      <c r="I27" s="199"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="192"/>
       <c r="J27" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="178"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="199"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
       <c r="T27" s="95" t="s">
         <v>450</v>
       </c>
@@ -5513,7 +5531,7 @@
       <c r="W27" s="134" t="s">
         <v>459</v>
       </c>
-      <c r="X27" s="178"/>
+      <c r="X27" s="202"/>
       <c r="Y27" s="169"/>
       <c r="Z27" s="170"/>
       <c r="AA27" s="170"/>
@@ -5521,31 +5539,31 @@
       <c r="AC27" s="172"/>
     </row>
     <row r="28" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="213"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="157" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="205"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="H28" s="205"/>
-      <c r="I28" s="199"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="192"/>
       <c r="J28" s="134" t="s">
         <v>436</v>
       </c>
-      <c r="K28" s="178"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="192"/>
       <c r="T28" s="95" t="s">
         <v>451</v>
       </c>
@@ -5558,7 +5576,7 @@
       <c r="W28" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="X28" s="178"/>
+      <c r="X28" s="202"/>
       <c r="Y28" s="169"/>
       <c r="Z28" s="170"/>
       <c r="AA28" s="170"/>
@@ -5566,31 +5584,31 @@
       <c r="AC28" s="172"/>
     </row>
     <row r="29" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
+      <c r="A29" s="178"/>
       <c r="B29" s="158" t="s">
         <v>423</v>
       </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="206"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="184"/>
       <c r="G29" s="96" t="s">
         <v>427</v>
       </c>
-      <c r="H29" s="206"/>
-      <c r="I29" s="200"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="193"/>
       <c r="J29" s="135" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="178"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="200"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="200"/>
-      <c r="S29" s="200"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="193"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
       <c r="T29" s="96" t="s">
         <v>452</v>
       </c>
@@ -5603,7 +5621,7 @@
       <c r="W29" s="135" t="s">
         <v>463</v>
       </c>
-      <c r="X29" s="178"/>
+      <c r="X29" s="202"/>
       <c r="Y29" s="169"/>
       <c r="Z29" s="170"/>
       <c r="AA29" s="170"/>
@@ -5611,7 +5629,7 @@
       <c r="AC29" s="172"/>
     </row>
     <row r="30" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="213" t="s">
+      <c r="A30" s="176" t="s">
         <v>250</v>
       </c>
       <c r="B30" s="155" t="s">
@@ -5620,7 +5638,7 @@
       <c r="C30" s="122" t="s">
         <v>525</v>
       </c>
-      <c r="D30" s="192" t="s">
+      <c r="D30" s="194" t="s">
         <v>471</v>
       </c>
       <c r="E30" s="44" t="s">
@@ -5629,19 +5647,19 @@
       <c r="F30" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="194" t="s">
         <v>471</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="I30" s="192" t="s">
+      <c r="I30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="J30" s="195" t="s">
+      <c r="J30" s="214" t="s">
         <v>471</v>
       </c>
-      <c r="K30" s="178"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="127" t="s">
         <v>253</v>
       </c>
@@ -5654,31 +5672,31 @@
       <c r="O30" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="P30" s="192" t="s">
+      <c r="P30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="Q30" s="192" t="s">
+      <c r="Q30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="R30" s="192" t="s">
+      <c r="R30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="S30" s="192" t="s">
+      <c r="S30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="T30" s="192" t="s">
+      <c r="T30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="U30" s="192" t="s">
+      <c r="U30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="V30" s="192" t="s">
+      <c r="V30" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="W30" s="195" t="s">
+      <c r="W30" s="214" t="s">
         <v>471</v>
       </c>
-      <c r="X30" s="178"/>
+      <c r="X30" s="202"/>
       <c r="Y30" s="169"/>
       <c r="Z30" s="170"/>
       <c r="AA30" s="170"/>
@@ -5686,27 +5704,27 @@
       <c r="AC30" s="172"/>
     </row>
     <row r="31" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="213"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="156" t="s">
         <v>420</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D31" s="193"/>
+      <c r="D31" s="195"/>
       <c r="E31" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F31" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="193"/>
+      <c r="G31" s="195"/>
       <c r="H31" s="109" t="s">
         <v>372</v>
       </c>
-      <c r="I31" s="193"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="178"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="202"/>
       <c r="L31" s="121" t="s">
         <v>256</v>
       </c>
@@ -5719,15 +5737,15 @@
       <c r="O31" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="193"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="196"/>
-      <c r="X31" s="178"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="202"/>
       <c r="Y31" s="169"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="170"/>
@@ -5735,27 +5753,27 @@
       <c r="AC31" s="172"/>
     </row>
     <row r="32" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="213"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="156" t="s">
         <v>421</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="195"/>
       <c r="E32" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F32" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="193"/>
+      <c r="G32" s="195"/>
       <c r="H32" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="I32" s="193"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="178"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="202"/>
       <c r="L32" s="121" t="s">
         <v>260</v>
       </c>
@@ -5768,15 +5786,15 @@
       <c r="O32" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="196"/>
-      <c r="X32" s="178"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="202"/>
       <c r="Y32" s="169"/>
       <c r="Z32" s="170"/>
       <c r="AA32" s="170"/>
@@ -5784,27 +5802,27 @@
       <c r="AC32" s="172"/>
     </row>
     <row r="33" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="213"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="157" t="s">
         <v>422</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D33" s="193"/>
+      <c r="D33" s="195"/>
       <c r="E33" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F33" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="193"/>
+      <c r="G33" s="195"/>
       <c r="H33" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="I33" s="193"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="178"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="202"/>
       <c r="L33" s="121" t="s">
         <v>262</v>
       </c>
@@ -5817,15 +5835,15 @@
       <c r="O33" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="196"/>
-      <c r="X33" s="178"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="195"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="215"/>
+      <c r="X33" s="202"/>
       <c r="Y33" s="169"/>
       <c r="Z33" s="170"/>
       <c r="AA33" s="170"/>
@@ -5833,27 +5851,27 @@
       <c r="AC33" s="172"/>
     </row>
     <row r="34" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="158" t="s">
         <v>423</v>
       </c>
       <c r="C34" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="D34" s="194"/>
+      <c r="D34" s="196"/>
       <c r="E34" s="47" t="s">
         <v>525</v>
       </c>
       <c r="F34" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="194"/>
+      <c r="G34" s="196"/>
       <c r="H34" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="I34" s="194"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="178"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="202"/>
       <c r="L34" s="128" t="s">
         <v>265</v>
       </c>
@@ -5866,15 +5884,15 @@
       <c r="O34" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="194"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="194"/>
-      <c r="T34" s="194"/>
-      <c r="U34" s="194"/>
-      <c r="V34" s="194"/>
-      <c r="W34" s="197"/>
-      <c r="X34" s="178"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="196"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="196"/>
+      <c r="W34" s="216"/>
+      <c r="X34" s="202"/>
       <c r="Y34" s="169"/>
       <c r="Z34" s="170"/>
       <c r="AA34" s="170"/>
@@ -5882,7 +5900,7 @@
       <c r="AC34" s="172"/>
     </row>
     <row r="35" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="177" t="s">
         <v>266</v>
       </c>
       <c r="B35" s="155" t="s">
@@ -5908,7 +5926,7 @@
       </c>
       <c r="I35" s="87"/>
       <c r="J35" s="123"/>
-      <c r="K35" s="178"/>
+      <c r="K35" s="202"/>
       <c r="L35" s="129" t="s">
         <v>514</v>
       </c>
@@ -5945,7 +5963,7 @@
       <c r="W35" s="136" t="s">
         <v>525</v>
       </c>
-      <c r="X35" s="178"/>
+      <c r="X35" s="202"/>
       <c r="Y35" s="169"/>
       <c r="Z35" s="170"/>
       <c r="AA35" s="170"/>
@@ -5953,7 +5971,7 @@
       <c r="AC35" s="172"/>
     </row>
     <row r="36" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="156" t="s">
         <v>420</v>
       </c>
@@ -5981,7 +5999,7 @@
       <c r="J36" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="K36" s="178"/>
+      <c r="K36" s="202"/>
       <c r="L36" s="119" t="s">
         <v>525</v>
       </c>
@@ -6018,7 +6036,7 @@
       <c r="W36" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X36" s="178"/>
+      <c r="X36" s="202"/>
       <c r="Y36" s="169"/>
       <c r="Z36" s="170"/>
       <c r="AA36" s="170"/>
@@ -6026,7 +6044,7 @@
       <c r="AC36" s="172"/>
     </row>
     <row r="37" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="156" t="s">
         <v>421</v>
       </c>
@@ -6048,7 +6066,7 @@
       </c>
       <c r="I37" s="93"/>
       <c r="J37" s="124"/>
-      <c r="K37" s="178"/>
+      <c r="K37" s="202"/>
       <c r="L37" s="118" t="s">
         <v>515</v>
       </c>
@@ -6085,7 +6103,7 @@
       <c r="W37" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X37" s="178"/>
+      <c r="X37" s="202"/>
       <c r="Y37" s="169"/>
       <c r="Z37" s="170"/>
       <c r="AA37" s="170"/>
@@ -6093,7 +6111,7 @@
       <c r="AC37" s="172"/>
     </row>
     <row r="38" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="157" t="s">
         <v>422</v>
       </c>
@@ -6121,7 +6139,7 @@
       <c r="J38" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="K38" s="178"/>
+      <c r="K38" s="202"/>
       <c r="L38" s="118" t="s">
         <v>485</v>
       </c>
@@ -6158,7 +6176,7 @@
       <c r="W38" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X38" s="178"/>
+      <c r="X38" s="202"/>
       <c r="Y38" s="169"/>
       <c r="Z38" s="170"/>
       <c r="AA38" s="170"/>
@@ -6166,7 +6184,7 @@
       <c r="AC38" s="172"/>
     </row>
     <row r="39" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="215"/>
+      <c r="A39" s="178"/>
       <c r="B39" s="158" t="s">
         <v>423</v>
       </c>
@@ -6194,7 +6212,7 @@
       <c r="J39" s="137" t="s">
         <v>525</v>
       </c>
-      <c r="K39" s="178"/>
+      <c r="K39" s="202"/>
       <c r="L39" s="130" t="s">
         <v>512</v>
       </c>
@@ -6231,7 +6249,7 @@
       <c r="W39" s="137" t="s">
         <v>525</v>
       </c>
-      <c r="X39" s="178"/>
+      <c r="X39" s="202"/>
       <c r="Y39" s="169" t="s">
         <v>279</v>
       </c>
@@ -6249,7 +6267,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="179" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="155" t="s">
@@ -6279,7 +6297,7 @@
       <c r="J40" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="K40" s="178"/>
+      <c r="K40" s="202"/>
       <c r="L40" s="114" t="s">
         <v>364</v>
       </c>
@@ -6316,7 +6334,7 @@
       <c r="W40" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="X40" s="178"/>
+      <c r="X40" s="202"/>
       <c r="Y40" s="169">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6339,7 +6357,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="180"/>
       <c r="B41" s="156" t="s">
         <v>420</v>
       </c>
@@ -6367,7 +6385,7 @@
       <c r="J41" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="K41" s="178"/>
+      <c r="K41" s="202"/>
       <c r="L41" s="114" t="s">
         <v>365</v>
       </c>
@@ -6404,7 +6422,7 @@
       <c r="W41" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="X41" s="178"/>
+      <c r="X41" s="202"/>
       <c r="Y41" s="169">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6427,7 +6445,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="180"/>
       <c r="B42" s="156" t="s">
         <v>421</v>
       </c>
@@ -6455,7 +6473,7 @@
       <c r="J42" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="K42" s="178"/>
+      <c r="K42" s="202"/>
       <c r="L42" s="114" t="s">
         <v>370</v>
       </c>
@@ -6492,7 +6510,7 @@
       <c r="W42" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="X42" s="178"/>
+      <c r="X42" s="202"/>
       <c r="Y42" s="169">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6515,7 +6533,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
+      <c r="A43" s="180"/>
       <c r="B43" s="157" t="s">
         <v>422</v>
       </c>
@@ -6543,7 +6561,7 @@
       <c r="J43" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="K43" s="178"/>
+      <c r="K43" s="202"/>
       <c r="L43" s="114" t="s">
         <v>367</v>
       </c>
@@ -6580,7 +6598,7 @@
       <c r="W43" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="X43" s="178"/>
+      <c r="X43" s="202"/>
       <c r="Y43" s="169">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6603,7 +6621,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
+      <c r="A44" s="181"/>
       <c r="B44" s="159" t="s">
         <v>423</v>
       </c>
@@ -6631,7 +6649,7 @@
       <c r="J44" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="K44" s="179"/>
+      <c r="K44" s="203"/>
       <c r="L44" s="131" t="s">
         <v>368</v>
       </c>
@@ -6668,7 +6686,7 @@
       <c r="W44" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="X44" s="179"/>
+      <c r="X44" s="203"/>
       <c r="Y44" s="173">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6690,100 +6708,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
-      <c r="C46" s="150" t="s">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>572</v>
+      </c>
+      <c r="C47" s="108" t="s">
+        <v>573</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="F46" s="60"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="151" t="s">
+      <c r="B48" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="F47" s="63"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="152" t="s">
+      <c r="B49" s="62" t="s">
+        <v>575</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="63"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="153" t="s">
+      <c r="B50" s="62" t="s">
+        <v>574</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="F49" s="67"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="100"/>
-      <c r="D51" s="60" t="s">
+      <c r="B51" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="100"/>
+      <c r="B53" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="E51" s="60"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="101"/>
-      <c r="D52" s="63" t="s">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="101"/>
+      <c r="B54" s="154" t="s">
         <v>469</v>
       </c>
-      <c r="E52" s="63"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="102"/>
-      <c r="D53" s="67" t="s">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="102"/>
+      <c r="B55" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="E53" s="67"/>
+      <c r="C55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="X3:X44"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:K44"/>
+    <mergeCell ref="T30:T34"/>
+    <mergeCell ref="U30:U34"/>
+    <mergeCell ref="W30:W34"/>
+    <mergeCell ref="V30:V34"/>
+    <mergeCell ref="J30:J34"/>
     <mergeCell ref="G30:G34"/>
     <mergeCell ref="R25:R29"/>
     <mergeCell ref="S25:S29"/>
@@ -6800,22 +6824,16 @@
     <mergeCell ref="P25:P29"/>
     <mergeCell ref="Q25:Q29"/>
     <mergeCell ref="D25:D29"/>
-    <mergeCell ref="X3:X44"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:K44"/>
-    <mergeCell ref="T30:T34"/>
-    <mergeCell ref="U30:U34"/>
-    <mergeCell ref="W30:W34"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgentExperiment.xlsx
+++ b/AgentExperiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Github\ReflectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E9B40-6D88-41D5-AD14-D283EF980702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915DCB77-269D-4698-BF66-8E34E957B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23460" yWindow="6135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{80B04CF1-7637-4C96-AE76-1DDD0574E0D7}"/>
+    <workbookView xWindow="-25320" yWindow="4185" windowWidth="25440" windowHeight="15270" xr2:uid="{80B04CF1-7637-4C96-AE76-1DDD0574E0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION SHEET" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="581">
   <si>
     <t>a1</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>Here you find the data of the application and the survey used in the thesis "The Functional Preference of Policemen when Using a Reflection Machine in Preventive Frisking"</t>
   </si>
   <si>
-    <t>There are four tabs below:</t>
-  </si>
-  <si>
     <t>AppData_en</t>
   </si>
   <si>
@@ -2054,6 +2051,24 @@
   </si>
   <si>
     <t>informed</t>
+  </si>
+  <si>
+    <t>Survey after part A</t>
+  </si>
+  <si>
+    <t>Survey after part B</t>
+  </si>
+  <si>
+    <t>RM intervention</t>
+  </si>
+  <si>
+    <t>Response to RM</t>
+  </si>
+  <si>
+    <t>Motivation response to RM</t>
+  </si>
+  <si>
+    <t>There are four tabs below (in every tab, the legend is shown beneath the data):</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -3187,6 +3201,118 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3198,117 +3324,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3696,8 +3711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF46D6-7E14-4FEF-82B9-B6DF82FD6AC4}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,74 +3724,74 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" t="s">
         <v>553</v>
-      </c>
-      <c r="C8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" t="s">
         <v>565</v>
-      </c>
-      <c r="C11" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" t="s">
         <v>567</v>
-      </c>
-      <c r="C13" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -3788,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4701F5-8CC6-46F5-A682-BE7B8F1AEA28}">
   <dimension ref="A2:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,79 +3815,79 @@
   <sheetData>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="180" t="s">
         <v>532</v>
       </c>
       <c r="B3" s="70"/>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="187" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="212" t="s">
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="190" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="209" t="s">
+      <c r="L3" s="187" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="200" t="s">
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="176" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="184" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="206" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="184" t="s">
         <v>527</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="206" t="s">
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="184" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="206" t="s">
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="184" t="s">
         <v>529</v>
       </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="207" t="s">
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="185" t="s">
         <v>530</v>
       </c>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="201"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="177"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="8" t="s">
         <v>533</v>
       </c>
@@ -3900,7 +3915,7 @@
       <c r="J5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="213"/>
+      <c r="K5" s="191"/>
       <c r="L5" s="13" t="s">
         <v>33</v>
       </c>
@@ -3937,10 +3952,10 @@
       <c r="W5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="201"/>
+      <c r="X5" s="177"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="8" t="s">
         <v>534</v>
       </c>
@@ -3968,7 +3983,7 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="213"/>
+      <c r="K6" s="191"/>
       <c r="L6" s="10">
         <v>0</v>
       </c>
@@ -4005,10 +4020,10 @@
       <c r="W6" s="12">
         <v>0</v>
       </c>
-      <c r="X6" s="201"/>
+      <c r="X6" s="177"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="8" t="s">
         <v>535</v>
       </c>
@@ -4036,7 +4051,7 @@
       <c r="J7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="213"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="10" t="s">
         <v>36</v>
       </c>
@@ -4073,10 +4088,10 @@
       <c r="W7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="201"/>
+      <c r="X7" s="177"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="8" t="s">
         <v>536</v>
       </c>
@@ -4104,7 +4119,7 @@
       <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="213"/>
+      <c r="K8" s="191"/>
       <c r="L8" s="10" t="s">
         <v>48</v>
       </c>
@@ -4141,10 +4156,10 @@
       <c r="W8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="201"/>
+      <c r="X8" s="177"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="8" t="s">
         <v>537</v>
       </c>
@@ -4172,7 +4187,7 @@
       <c r="J9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="213"/>
+      <c r="K9" s="191"/>
       <c r="L9" s="10" t="s">
         <v>52</v>
       </c>
@@ -4209,10 +4224,10 @@
       <c r="W9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="201"/>
+      <c r="X9" s="177"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
+      <c r="A10" s="181"/>
       <c r="B10" s="8" t="s">
         <v>538</v>
       </c>
@@ -4240,7 +4255,7 @@
       <c r="J10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="213"/>
+      <c r="K10" s="191"/>
       <c r="L10" s="13" t="s">
         <v>36</v>
       </c>
@@ -4277,10 +4292,10 @@
       <c r="W10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="201"/>
+      <c r="X10" s="177"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="8" t="s">
         <v>539</v>
       </c>
@@ -4308,7 +4323,7 @@
       <c r="J11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="213"/>
+      <c r="K11" s="191"/>
       <c r="L11" s="10" t="s">
         <v>57</v>
       </c>
@@ -4345,10 +4360,10 @@
       <c r="W11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="201"/>
+      <c r="X11" s="177"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
+      <c r="A12" s="181"/>
       <c r="B12" s="8" t="s">
         <v>540</v>
       </c>
@@ -4376,7 +4391,7 @@
       <c r="J12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="213"/>
+      <c r="K12" s="191"/>
       <c r="L12" s="10" t="s">
         <v>61</v>
       </c>
@@ -4413,10 +4428,10 @@
       <c r="W12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="201"/>
+      <c r="X12" s="177"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="75" t="s">
         <v>541</v>
       </c>
@@ -4444,7 +4459,7 @@
       <c r="J13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="213"/>
+      <c r="K13" s="191"/>
       <c r="L13" s="16" t="s">
         <v>40</v>
       </c>
@@ -4481,94 +4496,94 @@
       <c r="W13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="201"/>
+      <c r="X13" s="177"/>
     </row>
     <row r="14" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="160"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162">
+      <c r="A14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="161">
         <v>0</v>
       </c>
-      <c r="D14" s="163">
+      <c r="D14" s="162">
         <v>1</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="162">
         <v>2</v>
       </c>
-      <c r="F14" s="163">
+      <c r="F14" s="162">
         <v>3</v>
       </c>
-      <c r="G14" s="164">
+      <c r="G14" s="163">
         <v>4</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="162">
         <v>5</v>
       </c>
-      <c r="I14" s="163">
+      <c r="I14" s="162">
         <v>6</v>
       </c>
-      <c r="J14" s="165">
+      <c r="J14" s="164">
         <v>7</v>
       </c>
-      <c r="K14" s="202"/>
-      <c r="L14" s="162">
+      <c r="K14" s="178"/>
+      <c r="L14" s="161">
         <v>8</v>
       </c>
-      <c r="M14" s="163">
+      <c r="M14" s="162">
         <v>9</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="162">
         <v>10</v>
       </c>
-      <c r="O14" s="163">
+      <c r="O14" s="162">
         <v>11</v>
       </c>
-      <c r="P14" s="164">
+      <c r="P14" s="163">
         <v>12</v>
       </c>
-      <c r="Q14" s="163">
+      <c r="Q14" s="162">
         <v>13</v>
       </c>
-      <c r="R14" s="163">
+      <c r="R14" s="162">
         <v>14</v>
       </c>
-      <c r="S14" s="163">
+      <c r="S14" s="162">
         <v>15</v>
       </c>
-      <c r="T14" s="164">
+      <c r="T14" s="163">
         <v>16</v>
       </c>
-      <c r="U14" s="163">
+      <c r="U14" s="162">
         <v>17</v>
       </c>
-      <c r="V14" s="163">
+      <c r="V14" s="162">
         <v>18</v>
       </c>
-      <c r="W14" s="165">
+      <c r="W14" s="164">
         <v>19</v>
       </c>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="166" t="s">
+      <c r="X14" s="178"/>
+      <c r="Y14" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="Z14" s="167" t="s">
+      <c r="Z14" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="AA14" s="167" t="s">
+      <c r="AA14" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="AB14" s="167" t="s">
+      <c r="AB14" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="AC14" s="168" t="s">
+      <c r="AC14" s="167" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="154" t="s">
         <v>419</v>
       </c>
       <c r="C15" s="111" t="s">
@@ -4595,7 +4610,7 @@
       <c r="J15" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="K15" s="202"/>
+      <c r="K15" s="178"/>
       <c r="L15" s="114" t="s">
         <v>364</v>
       </c>
@@ -4632,31 +4647,31 @@
       <c r="W15" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="169">
+      <c r="X15" s="178"/>
+      <c r="Y15" s="168">
         <f>COUNTIF(C15:W15,"* No*")</f>
         <v>11</v>
       </c>
-      <c r="Z15" s="170">
+      <c r="Z15" s="169">
         <f>COUNTIF(C15:W15,"*Yes*")</f>
         <v>9</v>
       </c>
-      <c r="AA15" s="170">
+      <c r="AA15" s="169">
         <f>COUNTIF(C15:W15,"*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="170">
+      <c r="AB15" s="169">
         <f>SUM(Y15:AA15)</f>
         <v>20</v>
       </c>
-      <c r="AC15" s="171">
+      <c r="AC15" s="170">
         <f>ABS(Z15)/ABS(AB15)</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="156" t="s">
+      <c r="A16" s="181"/>
+      <c r="B16" s="155" t="s">
         <v>420</v>
       </c>
       <c r="C16" s="114" t="s">
@@ -4683,7 +4698,7 @@
       <c r="J16" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="K16" s="202"/>
+      <c r="K16" s="178"/>
       <c r="L16" s="114" t="s">
         <v>365</v>
       </c>
@@ -4720,31 +4735,31 @@
       <c r="W16" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="X16" s="202"/>
-      <c r="Y16" s="169">
+      <c r="X16" s="178"/>
+      <c r="Y16" s="168">
         <f t="shared" ref="Y16:Y44" si="0">COUNTIF(C16:W16,"* No*")</f>
         <v>16</v>
       </c>
-      <c r="Z16" s="170">
+      <c r="Z16" s="169">
         <f t="shared" ref="Z16:Z19" si="1">COUNTIF(C16:W16,"*Yes*")</f>
         <v>4</v>
       </c>
-      <c r="AA16" s="170">
+      <c r="AA16" s="169">
         <f t="shared" ref="AA16:AA19" si="2">COUNTIF(C16:W16,"*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="170">
+      <c r="AB16" s="169">
         <f t="shared" ref="AB16:AB19" si="3">SUM(Y16:AA16)</f>
         <v>20</v>
       </c>
-      <c r="AC16" s="171">
+      <c r="AC16" s="170">
         <f t="shared" ref="AC16:AC19" si="4">ABS(Z16)/ABS(AB16)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="156" t="s">
+      <c r="A17" s="181"/>
+      <c r="B17" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C17" s="115" t="s">
@@ -4771,7 +4786,7 @@
       <c r="J17" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="K17" s="202"/>
+      <c r="K17" s="178"/>
       <c r="L17" s="114" t="s">
         <v>370</v>
       </c>
@@ -4808,31 +4823,31 @@
       <c r="W17" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="X17" s="202"/>
-      <c r="Y17" s="169">
+      <c r="X17" s="178"/>
+      <c r="Y17" s="168">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Z17" s="170">
+      <c r="Z17" s="169">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AA17" s="170">
+      <c r="AA17" s="169">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB17" s="170">
+      <c r="AB17" s="169">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AC17" s="171">
+      <c r="AC17" s="170">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="157" t="s">
+      <c r="A18" s="181"/>
+      <c r="B18" s="156" t="s">
         <v>422</v>
       </c>
       <c r="C18" s="114" t="s">
@@ -4859,7 +4874,7 @@
       <c r="J18" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="K18" s="202"/>
+      <c r="K18" s="178"/>
       <c r="L18" s="114" t="s">
         <v>367</v>
       </c>
@@ -4896,31 +4911,31 @@
       <c r="W18" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="X18" s="202"/>
-      <c r="Y18" s="169">
+      <c r="X18" s="178"/>
+      <c r="Y18" s="168">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Z18" s="170">
+      <c r="Z18" s="169">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AA18" s="170">
+      <c r="AA18" s="169">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AB18" s="170">
+      <c r="AB18" s="169">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AC18" s="171">
+      <c r="AC18" s="170">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="205"/>
-      <c r="B19" s="158" t="s">
+      <c r="A19" s="183"/>
+      <c r="B19" s="157" t="s">
         <v>423</v>
       </c>
       <c r="C19" s="116" t="s">
@@ -4947,7 +4962,7 @@
       <c r="J19" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="202"/>
+      <c r="K19" s="178"/>
       <c r="L19" s="116" t="s">
         <v>368</v>
       </c>
@@ -4984,33 +4999,33 @@
       <c r="W19" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="X19" s="202"/>
-      <c r="Y19" s="169">
+      <c r="X19" s="178"/>
+      <c r="Y19" s="168">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Z19" s="170">
+      <c r="Z19" s="169">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AA19" s="170">
+      <c r="AA19" s="169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="170">
+      <c r="AB19" s="169">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AC19" s="171">
+      <c r="AC19" s="170">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="154" t="s">
         <v>419</v>
       </c>
       <c r="C20" s="118" t="s">
@@ -5037,7 +5052,7 @@
       <c r="J20" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="202"/>
+      <c r="K20" s="178"/>
       <c r="L20" s="121" t="s">
         <v>386</v>
       </c>
@@ -5074,16 +5089,16 @@
       <c r="W20" s="124" t="s">
         <v>397</v>
       </c>
-      <c r="X20" s="202"/>
-      <c r="Y20" s="169"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="172"/>
+      <c r="X20" s="178"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="171"/>
     </row>
     <row r="21" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="176"/>
-      <c r="B21" s="156" t="s">
+      <c r="A21" s="213"/>
+      <c r="B21" s="155" t="s">
         <v>420</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -5110,7 +5125,7 @@
       <c r="J21" s="124" t="s">
         <v>399</v>
       </c>
-      <c r="K21" s="202"/>
+      <c r="K21" s="178"/>
       <c r="L21" s="119" t="s">
         <v>525</v>
       </c>
@@ -5147,16 +5162,16 @@
       <c r="W21" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X21" s="202"/>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="170"/>
-      <c r="AC21" s="172"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="169"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="169"/>
+      <c r="AC21" s="171"/>
     </row>
     <row r="22" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
-      <c r="B22" s="156" t="s">
+      <c r="A22" s="213"/>
+      <c r="B22" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C22" s="118" t="s">
@@ -5183,7 +5198,7 @@
       <c r="J22" s="124" t="s">
         <v>407</v>
       </c>
-      <c r="K22" s="202"/>
+      <c r="K22" s="178"/>
       <c r="L22" s="121" t="s">
         <v>408</v>
       </c>
@@ -5220,16 +5235,16 @@
       <c r="W22" s="124" t="s">
         <v>418</v>
       </c>
-      <c r="X22" s="202"/>
-      <c r="Y22" s="169"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="170"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="172"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="171"/>
     </row>
     <row r="23" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="176"/>
-      <c r="B23" s="157" t="s">
+      <c r="A23" s="213"/>
+      <c r="B23" s="156" t="s">
         <v>422</v>
       </c>
       <c r="C23" s="118" t="s">
@@ -5256,7 +5271,7 @@
       <c r="J23" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="K23" s="202"/>
+      <c r="K23" s="178"/>
       <c r="L23" s="118" t="s">
         <v>485</v>
       </c>
@@ -5293,16 +5308,16 @@
       <c r="W23" s="103" t="s">
         <v>486</v>
       </c>
-      <c r="X23" s="202"/>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="172"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="171"/>
     </row>
     <row r="24" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="176"/>
-      <c r="B24" s="158" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="157" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="121" t="s">
@@ -5329,7 +5344,7 @@
       <c r="J24" s="103" t="s">
         <v>492</v>
       </c>
-      <c r="K24" s="202"/>
+      <c r="K24" s="178"/>
       <c r="L24" s="118" t="s">
         <v>493</v>
       </c>
@@ -5366,67 +5381,67 @@
       <c r="W24" s="103" t="s">
         <v>504</v>
       </c>
-      <c r="X24" s="202"/>
-      <c r="Y24" s="169"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="172"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="169"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="171"/>
     </row>
     <row r="25" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="155" t="s">
+      <c r="A25" s="214" t="s">
+        <v>577</v>
+      </c>
+      <c r="B25" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="210" t="s">
         <v>525</v>
       </c>
-      <c r="D25" s="191" t="s">
+      <c r="D25" s="198" t="s">
         <v>424</v>
       </c>
-      <c r="E25" s="185" t="s">
+      <c r="E25" s="207" t="s">
         <v>525</v>
       </c>
-      <c r="F25" s="182" t="s">
+      <c r="F25" s="204" t="s">
         <v>425</v>
       </c>
       <c r="G25" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="H25" s="182" t="s">
+      <c r="H25" s="204" t="s">
         <v>431</v>
       </c>
-      <c r="I25" s="191" t="s">
+      <c r="I25" s="198" t="s">
         <v>432</v>
       </c>
       <c r="J25" s="133" t="s">
         <v>433</v>
       </c>
-      <c r="K25" s="202"/>
-      <c r="L25" s="197" t="s">
+      <c r="K25" s="178"/>
+      <c r="L25" s="201" t="s">
         <v>425</v>
       </c>
-      <c r="M25" s="182" t="s">
+      <c r="M25" s="204" t="s">
         <v>431</v>
       </c>
-      <c r="N25" s="182" t="s">
+      <c r="N25" s="204" t="s">
         <v>438</v>
       </c>
-      <c r="O25" s="182" t="s">
+      <c r="O25" s="204" t="s">
         <v>425</v>
       </c>
-      <c r="P25" s="191" t="s">
+      <c r="P25" s="198" t="s">
         <v>439</v>
       </c>
-      <c r="Q25" s="191" t="s">
+      <c r="Q25" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="R25" s="191" t="s">
+      <c r="R25" s="198" t="s">
         <v>441</v>
       </c>
-      <c r="S25" s="191" t="s">
+      <c r="S25" s="198" t="s">
         <v>442</v>
       </c>
       <c r="T25" s="94" t="s">
@@ -5441,39 +5456,39 @@
       <c r="W25" s="133" t="s">
         <v>455</v>
       </c>
-      <c r="X25" s="202"/>
-      <c r="Y25" s="169"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="172"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="171"/>
     </row>
     <row r="26" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176"/>
-      <c r="B26" s="156" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="155" t="s">
         <v>420</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="183"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="H26" s="183"/>
-      <c r="I26" s="192"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="199"/>
       <c r="J26" s="134" t="s">
         <v>434</v>
       </c>
-      <c r="K26" s="202"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="192"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
       <c r="T26" s="95" t="s">
         <v>449</v>
       </c>
@@ -5486,39 +5501,39 @@
       <c r="W26" s="134" t="s">
         <v>457</v>
       </c>
-      <c r="X26" s="202"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="172"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="171"/>
     </row>
     <row r="27" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176"/>
-      <c r="B27" s="156" t="s">
+      <c r="A27" s="213"/>
+      <c r="B27" s="155" t="s">
         <v>421</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="183"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="192"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="199"/>
       <c r="J27" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="202"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="192"/>
-      <c r="R27" s="192"/>
-      <c r="S27" s="192"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="202"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="199"/>
+      <c r="R27" s="199"/>
+      <c r="S27" s="199"/>
       <c r="T27" s="95" t="s">
         <v>450</v>
       </c>
@@ -5531,39 +5546,39 @@
       <c r="W27" s="134" t="s">
         <v>459</v>
       </c>
-      <c r="X27" s="202"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="170"/>
-      <c r="AC27" s="172"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="169"/>
+      <c r="AC27" s="171"/>
     </row>
     <row r="28" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="176"/>
-      <c r="B28" s="157" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="156" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="183"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="205"/>
       <c r="G28" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="192"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="199"/>
       <c r="J28" s="134" t="s">
         <v>436</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="192"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
       <c r="T28" s="95" t="s">
         <v>451</v>
       </c>
@@ -5576,39 +5591,39 @@
       <c r="W28" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="X28" s="202"/>
-      <c r="Y28" s="169"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="170"/>
-      <c r="AC28" s="172"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="169"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="171"/>
     </row>
     <row r="29" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="178"/>
-      <c r="B29" s="158" t="s">
+      <c r="A29" s="215"/>
+      <c r="B29" s="157" t="s">
         <v>423</v>
       </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="184"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="96" t="s">
         <v>427</v>
       </c>
-      <c r="H29" s="184"/>
-      <c r="I29" s="193"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="200"/>
       <c r="J29" s="135" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="202"/>
-      <c r="L29" s="199"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="200"/>
+      <c r="S29" s="200"/>
       <c r="T29" s="96" t="s">
         <v>452</v>
       </c>
@@ -5621,24 +5636,24 @@
       <c r="W29" s="135" t="s">
         <v>463</v>
       </c>
-      <c r="X29" s="202"/>
-      <c r="Y29" s="169"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="170"/>
-      <c r="AC29" s="172"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="171"/>
     </row>
     <row r="30" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="176" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="155" t="s">
+      <c r="A30" s="213" t="s">
+        <v>578</v>
+      </c>
+      <c r="B30" s="154" t="s">
         <v>419</v>
       </c>
       <c r="C30" s="122" t="s">
         <v>525</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="192" t="s">
         <v>471</v>
       </c>
       <c r="E30" s="44" t="s">
@@ -5647,19 +5662,19 @@
       <c r="F30" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="194" t="s">
+      <c r="G30" s="192" t="s">
         <v>471</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="I30" s="194" t="s">
+      <c r="I30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="J30" s="214" t="s">
+      <c r="J30" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="K30" s="202"/>
+      <c r="K30" s="178"/>
       <c r="L30" s="127" t="s">
         <v>253</v>
       </c>
@@ -5672,59 +5687,59 @@
       <c r="O30" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="P30" s="194" t="s">
+      <c r="P30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="Q30" s="194" t="s">
+      <c r="Q30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="R30" s="194" t="s">
+      <c r="R30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="S30" s="194" t="s">
+      <c r="S30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="T30" s="194" t="s">
+      <c r="T30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="U30" s="194" t="s">
+      <c r="U30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="V30" s="194" t="s">
+      <c r="V30" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="W30" s="214" t="s">
+      <c r="W30" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="X30" s="202"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="170"/>
-      <c r="AC30" s="172"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="169"/>
+      <c r="AC30" s="171"/>
     </row>
     <row r="31" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="156" t="s">
+      <c r="A31" s="213"/>
+      <c r="B31" s="155" t="s">
         <v>420</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D31" s="195"/>
+      <c r="D31" s="193"/>
       <c r="E31" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F31" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="195"/>
+      <c r="G31" s="193"/>
       <c r="H31" s="109" t="s">
         <v>372</v>
       </c>
-      <c r="I31" s="195"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="202"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="178"/>
       <c r="L31" s="121" t="s">
         <v>256</v>
       </c>
@@ -5737,43 +5752,43 @@
       <c r="O31" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="P31" s="195"/>
-      <c r="Q31" s="195"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="215"/>
-      <c r="X31" s="202"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="170"/>
-      <c r="AC31" s="172"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="169"/>
+      <c r="AC31" s="171"/>
     </row>
     <row r="32" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
-      <c r="B32" s="156" t="s">
+      <c r="A32" s="213"/>
+      <c r="B32" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D32" s="195"/>
+      <c r="D32" s="193"/>
       <c r="E32" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F32" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="195"/>
+      <c r="G32" s="193"/>
       <c r="H32" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="I32" s="195"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="202"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="178"/>
       <c r="L32" s="121" t="s">
         <v>260</v>
       </c>
@@ -5786,43 +5801,43 @@
       <c r="O32" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="P32" s="195"/>
-      <c r="Q32" s="195"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="215"/>
-      <c r="X32" s="202"/>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="170"/>
-      <c r="AC32" s="172"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="193"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="196"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="169"/>
+      <c r="AC32" s="171"/>
     </row>
     <row r="33" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="157" t="s">
+      <c r="A33" s="213"/>
+      <c r="B33" s="156" t="s">
         <v>422</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>525</v>
       </c>
-      <c r="D33" s="195"/>
+      <c r="D33" s="193"/>
       <c r="E33" s="108" t="s">
         <v>525</v>
       </c>
       <c r="F33" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="195"/>
+      <c r="G33" s="193"/>
       <c r="H33" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="I33" s="195"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="202"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="178"/>
       <c r="L33" s="121" t="s">
         <v>262</v>
       </c>
@@ -5835,43 +5850,43 @@
       <c r="O33" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="P33" s="195"/>
-      <c r="Q33" s="195"/>
-      <c r="R33" s="195"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="195"/>
-      <c r="V33" s="195"/>
-      <c r="W33" s="215"/>
-      <c r="X33" s="202"/>
-      <c r="Y33" s="169"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="170"/>
-      <c r="AC33" s="172"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="196"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="169"/>
+      <c r="AA33" s="169"/>
+      <c r="AB33" s="169"/>
+      <c r="AC33" s="171"/>
     </row>
     <row r="34" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="158" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="157" t="s">
         <v>423</v>
       </c>
       <c r="C34" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="D34" s="196"/>
+      <c r="D34" s="194"/>
       <c r="E34" s="47" t="s">
         <v>525</v>
       </c>
       <c r="F34" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="196"/>
+      <c r="G34" s="194"/>
       <c r="H34" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="I34" s="196"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="202"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="178"/>
       <c r="L34" s="128" t="s">
         <v>265</v>
       </c>
@@ -5884,26 +5899,26 @@
       <c r="O34" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="196"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="196"/>
-      <c r="U34" s="196"/>
-      <c r="V34" s="196"/>
-      <c r="W34" s="216"/>
-      <c r="X34" s="202"/>
-      <c r="Y34" s="169"/>
-      <c r="Z34" s="170"/>
-      <c r="AA34" s="170"/>
-      <c r="AB34" s="170"/>
-      <c r="AC34" s="172"/>
+      <c r="P34" s="194"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="194"/>
+      <c r="S34" s="194"/>
+      <c r="T34" s="194"/>
+      <c r="U34" s="194"/>
+      <c r="V34" s="194"/>
+      <c r="W34" s="197"/>
+      <c r="X34" s="178"/>
+      <c r="Y34" s="168"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="169"/>
+      <c r="AB34" s="169"/>
+      <c r="AC34" s="171"/>
     </row>
     <row r="35" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="155" t="s">
+      <c r="A35" s="214" t="s">
+        <v>579</v>
+      </c>
+      <c r="B35" s="154" t="s">
         <v>419</v>
       </c>
       <c r="C35" s="122" t="s">
@@ -5926,7 +5941,7 @@
       </c>
       <c r="I35" s="87"/>
       <c r="J35" s="123"/>
-      <c r="K35" s="202"/>
+      <c r="K35" s="178"/>
       <c r="L35" s="129" t="s">
         <v>514</v>
       </c>
@@ -5963,16 +5978,16 @@
       <c r="W35" s="136" t="s">
         <v>525</v>
       </c>
-      <c r="X35" s="202"/>
-      <c r="Y35" s="169"/>
-      <c r="Z35" s="170"/>
-      <c r="AA35" s="170"/>
-      <c r="AB35" s="170"/>
-      <c r="AC35" s="172"/>
+      <c r="X35" s="178"/>
+      <c r="Y35" s="168"/>
+      <c r="Z35" s="169"/>
+      <c r="AA35" s="169"/>
+      <c r="AB35" s="169"/>
+      <c r="AC35" s="171"/>
     </row>
     <row r="36" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="176"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="213"/>
+      <c r="B36" s="155" t="s">
         <v>420</v>
       </c>
       <c r="C36" s="119" t="s">
@@ -5999,7 +6014,7 @@
       <c r="J36" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="K36" s="202"/>
+      <c r="K36" s="178"/>
       <c r="L36" s="119" t="s">
         <v>525</v>
       </c>
@@ -6036,16 +6051,16 @@
       <c r="W36" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X36" s="202"/>
-      <c r="Y36" s="169"/>
-      <c r="Z36" s="170"/>
-      <c r="AA36" s="170"/>
-      <c r="AB36" s="170"/>
-      <c r="AC36" s="172"/>
+      <c r="X36" s="178"/>
+      <c r="Y36" s="168"/>
+      <c r="Z36" s="169"/>
+      <c r="AA36" s="169"/>
+      <c r="AB36" s="169"/>
+      <c r="AC36" s="171"/>
     </row>
     <row r="37" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="176"/>
-      <c r="B37" s="156" t="s">
+      <c r="A37" s="213"/>
+      <c r="B37" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C37" s="119" t="s">
@@ -6066,7 +6081,7 @@
       </c>
       <c r="I37" s="93"/>
       <c r="J37" s="124"/>
-      <c r="K37" s="202"/>
+      <c r="K37" s="178"/>
       <c r="L37" s="118" t="s">
         <v>515</v>
       </c>
@@ -6103,16 +6118,16 @@
       <c r="W37" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X37" s="202"/>
-      <c r="Y37" s="169"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="170"/>
-      <c r="AB37" s="170"/>
-      <c r="AC37" s="172"/>
+      <c r="X37" s="178"/>
+      <c r="Y37" s="168"/>
+      <c r="Z37" s="169"/>
+      <c r="AA37" s="169"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="171"/>
     </row>
     <row r="38" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="176"/>
-      <c r="B38" s="157" t="s">
+      <c r="A38" s="213"/>
+      <c r="B38" s="156" t="s">
         <v>422</v>
       </c>
       <c r="C38" s="119" t="s">
@@ -6139,7 +6154,7 @@
       <c r="J38" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="K38" s="202"/>
+      <c r="K38" s="178"/>
       <c r="L38" s="118" t="s">
         <v>485</v>
       </c>
@@ -6176,16 +6191,16 @@
       <c r="W38" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="X38" s="202"/>
-      <c r="Y38" s="169"/>
-      <c r="Z38" s="170"/>
-      <c r="AA38" s="170"/>
-      <c r="AB38" s="170"/>
-      <c r="AC38" s="172"/>
+      <c r="X38" s="178"/>
+      <c r="Y38" s="168"/>
+      <c r="Z38" s="169"/>
+      <c r="AA38" s="169"/>
+      <c r="AB38" s="169"/>
+      <c r="AC38" s="171"/>
     </row>
     <row r="39" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="158" t="s">
+      <c r="A39" s="215"/>
+      <c r="B39" s="157" t="s">
         <v>423</v>
       </c>
       <c r="C39" s="125" t="s">
@@ -6212,7 +6227,7 @@
       <c r="J39" s="137" t="s">
         <v>525</v>
       </c>
-      <c r="K39" s="202"/>
+      <c r="K39" s="178"/>
       <c r="L39" s="130" t="s">
         <v>512</v>
       </c>
@@ -6249,28 +6264,28 @@
       <c r="W39" s="137" t="s">
         <v>525</v>
       </c>
-      <c r="X39" s="202"/>
-      <c r="Y39" s="169" t="s">
+      <c r="X39" s="178"/>
+      <c r="Y39" s="168" t="s">
         <v>279</v>
       </c>
-      <c r="Z39" s="170" t="s">
+      <c r="Z39" s="169" t="s">
         <v>280</v>
       </c>
-      <c r="AA39" s="170" t="s">
+      <c r="AA39" s="169" t="s">
         <v>281</v>
       </c>
-      <c r="AB39" s="170" t="s">
+      <c r="AB39" s="169" t="s">
         <v>282</v>
       </c>
-      <c r="AC39" s="172" t="s">
+      <c r="AC39" s="171" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179" t="s">
+      <c r="A40" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="154" t="s">
         <v>419</v>
       </c>
       <c r="C40" s="119" t="s">
@@ -6297,7 +6312,7 @@
       <c r="J40" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="K40" s="202"/>
+      <c r="K40" s="178"/>
       <c r="L40" s="114" t="s">
         <v>364</v>
       </c>
@@ -6334,31 +6349,31 @@
       <c r="W40" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="X40" s="202"/>
-      <c r="Y40" s="169">
+      <c r="X40" s="178"/>
+      <c r="Y40" s="168">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z40" s="170">
+      <c r="Z40" s="169">
         <f>COUNTIF(D40:W40, "*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="170">
+      <c r="AA40" s="169">
         <f t="shared" ref="AA40:AA44" si="5">18-Y40-Z40</f>
         <v>0</v>
       </c>
-      <c r="AB40" s="170">
+      <c r="AB40" s="169">
         <f t="shared" ref="AB40:AB44" si="6">AA40</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="172">
+      <c r="AC40" s="171">
         <f t="shared" ref="AC40:AC44" si="7">AB40/18*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="156" t="s">
+      <c r="A41" s="181"/>
+      <c r="B41" s="155" t="s">
         <v>420</v>
       </c>
       <c r="C41" s="119" t="s">
@@ -6385,7 +6400,7 @@
       <c r="J41" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="K41" s="202"/>
+      <c r="K41" s="178"/>
       <c r="L41" s="114" t="s">
         <v>365</v>
       </c>
@@ -6422,31 +6437,31 @@
       <c r="W41" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="X41" s="202"/>
-      <c r="Y41" s="169">
+      <c r="X41" s="178"/>
+      <c r="Y41" s="168">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Z41" s="170">
+      <c r="Z41" s="169">
         <f>COUNTIF(D41:W41, "*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="170">
+      <c r="AA41" s="169">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="170">
+      <c r="AB41" s="169">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC41" s="172">
+      <c r="AC41" s="171">
         <f t="shared" si="7"/>
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="180"/>
-      <c r="B42" s="156" t="s">
+      <c r="A42" s="181"/>
+      <c r="B42" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C42" s="119" t="s">
@@ -6473,7 +6488,7 @@
       <c r="J42" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="K42" s="202"/>
+      <c r="K42" s="178"/>
       <c r="L42" s="114" t="s">
         <v>370</v>
       </c>
@@ -6510,31 +6525,31 @@
       <c r="W42" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="X42" s="202"/>
-      <c r="Y42" s="169">
+      <c r="X42" s="178"/>
+      <c r="Y42" s="168">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z42" s="170">
+      <c r="Z42" s="169">
         <f>COUNTIF(D42:W42, "*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="170">
+      <c r="AA42" s="169">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="170">
+      <c r="AB42" s="169">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="172">
+      <c r="AC42" s="171">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="180"/>
-      <c r="B43" s="157" t="s">
+      <c r="A43" s="181"/>
+      <c r="B43" s="156" t="s">
         <v>422</v>
       </c>
       <c r="C43" s="119" t="s">
@@ -6561,7 +6576,7 @@
       <c r="J43" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="K43" s="202"/>
+      <c r="K43" s="178"/>
       <c r="L43" s="114" t="s">
         <v>367</v>
       </c>
@@ -6598,31 +6613,31 @@
       <c r="W43" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="X43" s="202"/>
-      <c r="Y43" s="169">
+      <c r="X43" s="178"/>
+      <c r="Y43" s="168">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Z43" s="170">
+      <c r="Z43" s="169">
         <f>COUNTIF(D43:W43, "*I don't know*")</f>
         <v>1</v>
       </c>
-      <c r="AA43" s="170">
+      <c r="AA43" s="169">
         <f>18-Y43-Z43</f>
         <v>2</v>
       </c>
-      <c r="AB43" s="170">
+      <c r="AB43" s="169">
         <f>AA43</f>
         <v>2</v>
       </c>
-      <c r="AC43" s="172">
+      <c r="AC43" s="171">
         <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="181"/>
-      <c r="B44" s="159" t="s">
+      <c r="A44" s="182"/>
+      <c r="B44" s="158" t="s">
         <v>423</v>
       </c>
       <c r="C44" s="139" t="s">
@@ -6649,7 +6664,7 @@
       <c r="J44" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="K44" s="203"/>
+      <c r="K44" s="179"/>
       <c r="L44" s="131" t="s">
         <v>368</v>
       </c>
@@ -6686,24 +6701,24 @@
       <c r="W44" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="X44" s="203"/>
-      <c r="Y44" s="173">
+      <c r="X44" s="179"/>
+      <c r="Y44" s="172">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z44" s="174">
+      <c r="Z44" s="173">
         <f>COUNTIF(D44:W44, "*I don't know*")</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="174">
+      <c r="AA44" s="173">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="174">
+      <c r="AB44" s="173">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="175">
+      <c r="AC44" s="174">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6715,10 +6730,10 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
+        <v>571</v>
+      </c>
+      <c r="C47" t="s">
         <v>572</v>
-      </c>
-      <c r="C47" s="108" t="s">
-        <v>573</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -6726,46 +6741,46 @@
       <c r="A48" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="59" t="s">
-        <v>575</v>
+      <c r="B48" s="70" t="s">
+        <v>574</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="151" t="s">
+      <c r="A49" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>575</v>
+      <c r="B49" t="s">
+        <v>574</v>
       </c>
       <c r="C49" s="63" t="s">
+        <v>569</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>574</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="66" t="s">
-        <v>574</v>
+      <c r="B51" s="75" t="s">
+        <v>573</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6778,7 +6793,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="101"/>
-      <c r="B54" s="154" t="s">
+      <c r="B54" s="153" t="s">
         <v>469</v>
       </c>
       <c r="C54" s="8"/>
@@ -6792,6 +6807,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="R25:R29"/>
+    <mergeCell ref="S25:S29"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="R30:R34"/>
+    <mergeCell ref="S30:S34"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="M25:M29"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="O25:O29"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="Q25:Q29"/>
+    <mergeCell ref="D25:D29"/>
     <mergeCell ref="X3:X44"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A15:A19"/>
@@ -6808,32 +6849,6 @@
     <mergeCell ref="W30:W34"/>
     <mergeCell ref="V30:V34"/>
     <mergeCell ref="J30:J34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="R25:R29"/>
-    <mergeCell ref="S25:S29"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="R30:R34"/>
-    <mergeCell ref="S30:S34"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="M25:M29"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="O25:O29"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="Q25:Q29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6844,8 +6859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FACEFE-40E2-40A7-B0DD-81C864E64DBC}">
   <dimension ref="B2:P66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6853,14 +6868,14 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="223" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="D2" s="224"/>
       <c r="E2" s="224"/>
       <c r="F2" s="224"/>
       <c r="G2" s="225"/>
       <c r="H2" s="223" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="I2" s="224"/>
       <c r="J2" s="224"/>
@@ -6872,24 +6887,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F3" s="82"/>
       <c r="G3" s="83"/>
       <c r="H3" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="83"/>
@@ -7124,34 +7139,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F13" s="82" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I13" s="142" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="142" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K13" s="142" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -7412,24 +7427,24 @@
         <v>3</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>299</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="83"/>
       <c r="H23" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I23" s="82" t="s">
         <v>299</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="83"/>
@@ -7664,24 +7679,24 @@
         <v>5</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D33" s="82" t="s">
         <v>298</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F33" s="82"/>
       <c r="G33" s="83"/>
       <c r="H33" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I33" s="82" t="s">
         <v>298</v>
       </c>
       <c r="J33" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K33" s="82"/>
       <c r="L33" s="83"/>
@@ -7888,49 +7903,56 @@
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>571</v>
+      </c>
+      <c r="D43" t="s">
+        <v>572</v>
+      </c>
+    </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="59" t="s">
-        <v>350</v>
+      <c r="C44" s="70" t="s">
+        <v>574</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>351</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="62" t="s">
-        <v>350</v>
+      <c r="C45" t="s">
+        <v>574</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>352</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="62" t="s">
-        <v>353</v>
+      <c r="C46" t="s">
+        <v>573</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>351</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="66" t="s">
-        <v>353</v>
+      <c r="C47" s="75" t="s">
+        <v>573</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>352</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -8119,7 +8141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E0DDA-5AEC-4A95-AA8B-024E1F3EE13B}">
   <dimension ref="A4:V52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
@@ -8193,7 +8215,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="153" t="s">
         <v>533</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -8258,7 +8280,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="153" t="s">
         <v>534</v>
       </c>
       <c r="B7" s="10">
@@ -8323,7 +8345,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="153" t="s">
         <v>535</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -8388,7 +8410,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="153" t="s">
         <v>536</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -8453,7 +8475,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="153" t="s">
         <v>537</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -8518,7 +8540,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="153" t="s">
         <v>538</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -8583,7 +8605,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="153" t="s">
         <v>539</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -8648,7 +8670,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="153" t="s">
         <v>540</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -10582,7 +10604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A28C8-6258-4249-BC62-7A8CF87DEED3}">
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -10616,24 +10638,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F3" s="82"/>
       <c r="G3" s="83"/>
       <c r="H3" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="83"/>
@@ -10838,34 +10860,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F13" s="82" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I13" s="142" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="142" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K13" s="142" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -11096,24 +11118,24 @@
         <v>3</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>299</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="83"/>
       <c r="H23" s="85" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I23" s="82" t="s">
         <v>299</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="83"/>
@@ -11318,24 +11340,24 @@
         <v>5</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D33" s="82" t="s">
         <v>298</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F33" s="82"/>
       <c r="G33" s="83"/>
       <c r="H33" s="79" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I33" s="82" t="s">
         <v>298</v>
       </c>
       <c r="J33" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K33" s="82"/>
       <c r="L33" s="83"/>
